--- a/pred_ohlcv/54_21/2019-10-30 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 DAD ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>526030.4875317212</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>523216.1117317213</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>503648.7203317212</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>494096.3924317213</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>531418.9477317212</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>457421.1006932322</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>338937.3841932322</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>391752.3034314112</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>392803.0207314112</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>402958.0030314112</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>393341.4250314111</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>367381.6970314111</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>359859.3862314111</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>8420285.146942692</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>8435452.932442691</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>8511608.163160434</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>8489817.221560434</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>9366870.123560432</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9715577.259860432</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>9743211.513560431</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>4977436.294760432</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>4974921.742960433</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4992503.566460432</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4990464.910460432</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4990792.32350391</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>4990792.32350391</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4988526.32350391</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4980950.23140391</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4975072.661403909</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4980448.947203909</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4974881.546103909</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4978187.616003908</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4978604.859103908</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4978604.859103908</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4977747.585003908</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4978718.138503908</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4983810.354911534</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4989772.129611534</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4985696.101711534</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4979880.963211534</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4984940.711858654</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4982458.117858655</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4975544.115758655</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4975545.115758655</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4975001.376258655</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4975001.376258655</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4960203.262958654</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4955805.946458654</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4961204.282158654</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4959987.771397117</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4960087.771397117</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4960087.771397117</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4959017.963297117</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4957291.740197117</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4957291.740197117</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4955540.743097116</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4955330.298497116</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4957310.644697116</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4957305.479497116</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4957335.479497116</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4957485.479497116</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4957485.479497116</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4953183.965197116</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>4954277.303697116</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>4954687.951197116</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>4954688.951197116</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>4952204.640297116</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4952204.640297116</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4952277.490797115</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4952278.490797115</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>4961712.290426238</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>4960493.787226237</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4960492.287226237</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>4960573.849526238</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4952353.524926238</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4952353.524926238</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>4938839.342726238</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>4938860.987747883</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4938626.222647883</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>4938627.478047883</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>4938627.478047883</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>4937346.459447883</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>4938005.962347883</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>4937155.200547882</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>4915611.092547882</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>4915614.092547882</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>4915614.092547882</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4765769.296347883</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3871235.253647883</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3268341.618147883</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2998107.618347883</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2998107.618347883</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2994541.406747883</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3142183.882747883</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3142443.673847883</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3139068.069647883</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3136874.274047883</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3139692.211247883</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3137798.842847883</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3137800.842847883</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3137801.842847883</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3069491.222647883</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3018948.758047883</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2975437.624447883</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2985188.966347883</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2984681.170747883</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2238082.170747883</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2238092.170747883</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2238088.570747883</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2238085.070747883</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2252646.665547883</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-149199.5935521168</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 DAD ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>502600.1574317212</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>526030.4875317212</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>523216.1117317213</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>503648.7203317212</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>494096.3924317213</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>531418.9477317212</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>516033.9119317212</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>500303.3404932322</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>457421.1006932322</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>462925.6530932322</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>465248.8745932322</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>338937.3841932322</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>322702.5767932322</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>390309.1049051622</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>403112.9009882432</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>391752.3034314112</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>392803.0207314112</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>402958.0030314112</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>393341.4250314111</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>8468172.037305381</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>8518748.788117331</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2994541.406747883</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3142183.882747883</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3142443.673847883</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3139068.069647883</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3136874.274047883</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3139692.211247883</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3137798.842847883</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3137800.842847883</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3137801.842847883</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3069491.222647883</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3018948.758047883</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2975437.624447883</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2985188.966347883</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2984681.170747883</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2238082.170747883</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2238092.170747883</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2238088.570747883</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2238085.070747883</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2252646.665547883</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-149199.5935521168</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1624578.462652332</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
